--- a/6. DANA PENDING DAN CASH BON/5. Dana Pendingan - 2019.xlsx
+++ b/6. DANA PENDING DAN CASH BON/5. Dana Pendingan - 2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15360" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="15360" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="LP3I" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="old (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LP3I!$C$5:$G$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LP3I!$C$5:$G$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mayasari!$B$6:$F$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Mayasari!$A$1:$E$77</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="188">
   <si>
     <t>LEMBAGA PENDIDIKAN DAN PENGEMBANGAN PROFESI INDONESIA</t>
   </si>
@@ -492,18 +492,9 @@
     <t>Bensin &amp; parkir ke Bank</t>
   </si>
   <si>
-    <t>Eko</t>
-  </si>
-  <si>
-    <t>Company Visit</t>
-  </si>
-  <si>
     <t>CNP</t>
   </si>
   <si>
-    <t>Marketing</t>
-  </si>
-  <si>
     <t>CB Honor Pendamping Disdik</t>
   </si>
   <si>
@@ -534,18 +525,9 @@
     <t>CB KK Santunan</t>
   </si>
   <si>
-    <t>CB (d:150k n:150k o:200k)</t>
-  </si>
-  <si>
-    <t>Rudi H</t>
-  </si>
-  <si>
     <t>CB Lauk pauk</t>
   </si>
   <si>
-    <t>Sponsor Perpisahan</t>
-  </si>
-  <si>
     <t>Ligar</t>
   </si>
   <si>
@@ -558,9 +540,6 @@
     <t>Aep</t>
   </si>
   <si>
-    <t>Anak Asuh</t>
-  </si>
-  <si>
     <t>Fara</t>
   </si>
   <si>
@@ -573,21 +552,12 @@
     <t>Nabung THR</t>
   </si>
   <si>
-    <t>Rijal</t>
-  </si>
-  <si>
-    <t>Ganti Kran</t>
-  </si>
-  <si>
     <t>Joko</t>
   </si>
   <si>
     <t>PKK 2019</t>
   </si>
   <si>
-    <t>UT April</t>
-  </si>
-  <si>
     <t>Eva F</t>
   </si>
   <si>
@@ -597,16 +567,31 @@
     <t>DM</t>
   </si>
   <si>
-    <t>Fee Manajemen</t>
-  </si>
-  <si>
-    <t>Pulsa BM, HO</t>
-  </si>
-  <si>
     <t>Antar tes kerja ke Bdg</t>
   </si>
   <si>
-    <t>Koran</t>
+    <t>Yovi F</t>
+  </si>
+  <si>
+    <t>Pengajuan Tools TO Tahap 2</t>
+  </si>
+  <si>
+    <t>CB (d:150k n:300k o:200k a:200)</t>
+  </si>
+  <si>
+    <t>Rheda</t>
+  </si>
+  <si>
+    <t>Tajil</t>
+  </si>
+  <si>
+    <t>Pembimbing OML/OPL</t>
+  </si>
+  <si>
+    <t>Kamal</t>
+  </si>
+  <si>
+    <t>Praktek TO</t>
   </si>
 </sst>
 </file>
@@ -837,7 +822,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1001,7 +986,6 @@
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1607,12 +1591,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6:G39"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1630,12 +1614,12 @@
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C1" s="92"/>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="105"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="104"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="92"/>
@@ -1646,21 +1630,21 @@
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="92"/>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="105"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="92"/>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="80" t="s">
@@ -1690,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="98" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G6" s="102">
         <v>3600000</v>
@@ -1707,10 +1691,10 @@
         <v>100</v>
       </c>
       <c r="F7" s="98" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="G7" s="102">
-        <v>500000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
@@ -1800,87 +1784,87 @@
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C13" s="82">
-        <v>43577</v>
+        <v>43581</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="F13" s="98" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G13" s="102">
-        <v>19545000</v>
+        <v>24116800</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C14" s="82">
-        <v>43581</v>
+        <v>43582</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F14" s="98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G14" s="102">
-        <v>24116800</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C15" s="82">
-        <v>43582</v>
+        <v>43584</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="E15" s="91" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="G15" s="102">
-        <v>850000</v>
+        <v>7560000</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C16" s="82">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="E16" s="91" t="s">
         <v>100</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G16" s="102">
-        <v>7560000</v>
+        <v>13455000</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="82">
-        <v>43585</v>
+        <v>43586</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F17" s="98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G17" s="102">
-        <v>13455000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.3">
@@ -1888,16 +1872,17 @@
         <v>43586</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F18" s="98" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="G18" s="102">
-        <v>350000</v>
+        <f>400000-145000</f>
+        <v>255000</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
@@ -1905,17 +1890,16 @@
         <v>43586</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>9</v>
+        <v>163</v>
       </c>
       <c r="G19" s="102">
-        <f>400000-145000</f>
-        <v>255000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
@@ -1929,10 +1913,10 @@
         <v>100</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G20" s="102">
-        <v>1000000</v>
+        <v>557000</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
@@ -1946,408 +1930,392 @@
         <v>100</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G21" s="102">
-        <v>557000</v>
+        <v>9450000</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="82">
-        <v>43586</v>
+        <v>43589</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G22" s="102">
-        <v>9450000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="82">
-        <v>43587</v>
+        <v>43589</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="E23" s="91" t="s">
         <v>100</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="G23" s="102">
-        <v>2900000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="82">
-        <v>43588</v>
+        <v>43592</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G24" s="102">
-        <v>750000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="82">
-        <v>43589</v>
+        <v>43592</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E25" s="91" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>173</v>
+        <v>9</v>
       </c>
       <c r="G25" s="102">
-        <v>3500000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="82">
-        <v>43589</v>
+        <v>43592</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>100</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G26" s="102">
-        <v>100000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="82">
-        <v>43589</v>
+        <v>43592</v>
       </c>
       <c r="D27" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="98" t="s">
-        <v>176</v>
-      </c>
       <c r="G27" s="102">
-        <v>2440000</v>
+        <v>1625000</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="82">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G28" s="102">
-        <v>15000000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="82">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="D29" s="91" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F29" s="98" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G29" s="102">
-        <v>115000</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="82">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F30" s="98" t="s">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="G30" s="102">
-        <v>250000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="82">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="G31" s="102">
-        <v>3600000</v>
+        <v>5630000</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="82">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="E32" s="91" t="s">
         <v>100</v>
       </c>
       <c r="F32" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="G32" s="102">
+        <v>2907500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="82">
+        <v>43594</v>
+      </c>
+      <c r="D33" s="91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="G32" s="102">
-        <v>1625000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="82">
-        <v>43592</v>
-      </c>
-      <c r="D33" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="98" t="s">
+      <c r="G33" s="102">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="82">
+        <v>43594</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="F34" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="G33" s="102">
-        <v>7312500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="82">
-        <v>43593</v>
-      </c>
-      <c r="D34" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="98" t="s">
-        <v>187</v>
-      </c>
       <c r="G34" s="102">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C35" s="82">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="D35" s="91" t="s">
         <v>186</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F35" s="98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G35" s="102">
-        <v>123000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C36" s="82">
-        <v>43593</v>
+        <v>43595</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G36" s="102">
-        <v>8180000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="82">
-        <v>43593</v>
-      </c>
-      <c r="D37" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="98" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="102">
-        <v>1750000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="82">
-        <v>43593</v>
-      </c>
-      <c r="D38" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="98" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="102">
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="82">
-        <v>43593</v>
-      </c>
-      <c r="D39" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="91" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" s="103">
-        <v>85000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="84" t="s">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="82"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="102"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="82"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="102"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="82"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="102"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="82"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="102"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="82"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="102"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="H40" s="83"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="84" t="s">
+      <c r="C42" s="79"/>
+      <c r="H42" s="83"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="F41" s="90" t="s">
+      <c r="C43" s="79"/>
+      <c r="F43" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="83"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="93"/>
-    </row>
-    <row r="45" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="94" t="s">
+      <c r="G43" s="90"/>
+      <c r="H43" s="83"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="93"/>
+    </row>
+    <row r="47" spans="2:8" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="F45" s="86" t="s">
+      <c r="F47" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="G45" s="87" t="s">
+      <c r="G47" s="87" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="95" t="s">
+    <row r="48" spans="2:8" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="88" t="s">
+      <c r="F48" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="G46" s="89" t="s">
+      <c r="G48" s="89" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="84" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="79"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="96" t="s">
+      <c r="C49" s="79"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="84"/>
-      <c r="C48" s="79"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="99"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="84" t="s">
-        <v>141</v>
-      </c>
+      <c r="B50" s="84"/>
       <c r="C50" s="79"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="100" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="G51" s="79"/>
+      <c r="C51" s="99"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="79"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="100" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="79"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="G53" s="79"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="G52" s="79"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="84" t="s">
+      <c r="C54" s="79"/>
+      <c r="G54" s="79"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="G53" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="G55" s="79"/>
     </row>
   </sheetData>
-  <autoFilter ref="C5:G43">
+  <autoFilter ref="C5:G45">
     <sortState ref="C54:G54">
       <sortCondition ref="E4:E54"/>
     </sortState>
@@ -2392,27 +2360,27 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="56"/>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="56"/>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="56"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="56"/>
@@ -3455,10 +3423,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="107"/>
+      <c r="C67" s="106"/>
       <c r="D67" s="63"/>
       <c r="E67" s="70">
         <f>SUBTOTAL(9,E7:E64)</f>
@@ -3512,8 +3480,8 @@
       <c r="F76" s="58"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D79" s="108"/>
-      <c r="E79" s="108"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="107"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D80" s="74"/>
@@ -3580,29 +3548,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3987,27 +3955,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="42"/>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="42"/>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
@@ -4519,11 +4487,11 @@
       <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
       <c r="D39" s="44">
         <f>SUM(D5:D38)</f>
         <v>16351900</v>
@@ -4612,23 +4580,23 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5285,11 +5253,11 @@
       <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="114" t="s">
+      <c r="A39" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
       <c r="D39" s="24">
         <f>SUM(D5:D38)</f>
         <v>16901900</v>

--- a/6. DANA PENDING DAN CASH BON/5. Dana Pendingan - 2019.xlsx
+++ b/6. DANA PENDING DAN CASH BON/5. Dana Pendingan - 2019.xlsx
@@ -14,7 +14,7 @@
     <sheet name="old (2)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LP3I!$C$5:$G$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LP3I!$C$5:$G$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Mayasari!$B$6:$F$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Mayasari!$A$1:$E$77</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="196">
   <si>
     <t>LEMBAGA PENDIDIKAN DAN PENGEMBANGAN PROFESI INDONESIA</t>
   </si>
@@ -519,27 +519,6 @@
     <t>Andri I</t>
   </si>
   <si>
-    <t>CB KK</t>
-  </si>
-  <si>
-    <t>CB KK Santunan</t>
-  </si>
-  <si>
-    <t>CB Lauk pauk</t>
-  </si>
-  <si>
-    <t>Ligar</t>
-  </si>
-  <si>
-    <t>Native Speaker</t>
-  </si>
-  <si>
-    <t>CB Masak</t>
-  </si>
-  <si>
-    <t>Aep</t>
-  </si>
-  <si>
     <t>Fara</t>
   </si>
   <si>
@@ -555,9 +534,6 @@
     <t>Joko</t>
   </si>
   <si>
-    <t>PKK 2019</t>
-  </si>
-  <si>
     <t>Eva F</t>
   </si>
   <si>
@@ -585,13 +561,61 @@
     <t>Tajil</t>
   </si>
   <si>
-    <t>Pembimbing OML/OPL</t>
-  </si>
-  <si>
     <t>Kamal</t>
   </si>
   <si>
     <t>Praktek TO</t>
+  </si>
+  <si>
+    <t>Rijal</t>
+  </si>
+  <si>
+    <t>Yahya</t>
+  </si>
+  <si>
+    <t>Tes Kerja ke PT JJSM Subang</t>
+  </si>
+  <si>
+    <t>Dendi</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>M Aripin</t>
+  </si>
+  <si>
+    <t>FC Soal UAS</t>
+  </si>
+  <si>
+    <t>Tes Kerja Pwt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roni </t>
+  </si>
+  <si>
+    <t>Service Mobil Putih</t>
+  </si>
+  <si>
+    <t>Tes Kerja PT Tiga Bintang Pangandaran</t>
+  </si>
+  <si>
+    <t>Ririn</t>
+  </si>
+  <si>
+    <t>Indri F</t>
+  </si>
+  <si>
+    <t>UM dan Bensin Bagi Tajil</t>
+  </si>
+  <si>
+    <t>Listrik, Air, Telkom</t>
+  </si>
+  <si>
+    <t>Pakan Ikan</t>
   </si>
 </sst>
 </file>
@@ -822,7 +846,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -986,6 +1010,7 @@
     </xf>
     <xf numFmtId="42" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1065,7 +1090,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo%20baru">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1122,7 +1147,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo%20baru">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1199,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="logo%20baru">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1256,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo%20baru">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1313,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="logo%20baru">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1591,12 +1616,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1614,12 +1639,12 @@
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C1" s="92"/>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="105"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C2" s="92"/>
@@ -1630,21 +1655,21 @@
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3" s="92"/>
-      <c r="D3" s="103" t="s">
+      <c r="D3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="105"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="92"/>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C5" s="80" t="s">
@@ -1691,7 +1716,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="98" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G7" s="102">
         <v>150000</v>
@@ -1827,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="98" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G15" s="102">
         <v>7560000</v>
@@ -1875,7 +1900,7 @@
         <v>162</v>
       </c>
       <c r="E18" s="91" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="F18" s="98" t="s">
         <v>9</v>
@@ -1887,7 +1912,7 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="82">
-        <v>43586</v>
+        <v>43592</v>
       </c>
       <c r="D19" s="91" t="s">
         <v>101</v>
@@ -1896,160 +1921,160 @@
         <v>100</v>
       </c>
       <c r="F19" s="98" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G19" s="102">
-        <v>1000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="82">
-        <v>43586</v>
+        <v>43592</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="E20" s="91" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="G20" s="102">
-        <v>557000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="82">
-        <v>43586</v>
+        <v>43592</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="E21" s="91" t="s">
         <v>100</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G21" s="102">
-        <v>9450000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="82">
-        <v>43589</v>
+        <v>43593</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F22" s="98" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G22" s="102">
-        <v>3500000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="82">
-        <v>43589</v>
+        <v>43593</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F23" s="98" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G23" s="102">
-        <v>100000</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="82">
-        <v>43592</v>
+        <v>43593</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="F24" s="98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G24" s="102">
-        <v>15000000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="82">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="D25" s="91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E25" s="91" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F25" s="98" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="G25" s="102">
-        <v>100000</v>
+        <v>5630000</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="82">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="D26" s="91" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E26" s="91" t="s">
         <v>100</v>
       </c>
       <c r="F26" s="98" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G26" s="102">
-        <v>3600000</v>
+        <v>2907500</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="82">
-        <v>43592</v>
+        <v>43594</v>
       </c>
       <c r="D27" s="91" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="F27" s="98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G27" s="102">
-        <v>1625000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="82">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="D28" s="91" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F28" s="98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="102">
         <v>150000</v>
@@ -2057,265 +2082,440 @@
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="82">
-        <v>43593</v>
+        <v>43595</v>
       </c>
       <c r="D29" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="E29" s="91" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="98" t="s">
-        <v>178</v>
-      </c>
       <c r="G29" s="102">
-        <v>123000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="82">
-        <v>43593</v>
+        <v>43595</v>
       </c>
       <c r="D30" s="91" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="E30" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="F30" s="98" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="102">
-        <v>350000</v>
+      <c r="F30" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" s="103">
+        <v>620000</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="82">
-        <v>43594</v>
+        <v>43596</v>
       </c>
       <c r="D31" s="91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F31" s="98" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G31" s="102">
-        <v>5630000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="82">
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="D32" s="91" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>171</v>
+        <v>9</v>
       </c>
       <c r="G32" s="102">
-        <v>2907500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="82">
-        <v>43594</v>
+        <v>43598</v>
       </c>
       <c r="D33" s="91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E33" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" s="98" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="102">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="82">
+        <v>43598</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34" s="102">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="82">
+        <v>43599</v>
+      </c>
+      <c r="D35" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="102">
+      <c r="F35" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="102">
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="82">
-        <v>43594</v>
-      </c>
-      <c r="D34" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="102">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="82">
-        <v>43594</v>
-      </c>
-      <c r="D35" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35" s="102">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="82">
-        <v>43595</v>
+        <v>43599</v>
       </c>
       <c r="D36" s="91" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E36" s="91" t="s">
         <v>152</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G36" s="102">
         <v>50000</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="82"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="102"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="82"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="102"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="82"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="102"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="82"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="102"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="82"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="102"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="84" t="s">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="82">
+        <v>43599</v>
+      </c>
+      <c r="D37" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="102">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="82">
+        <v>43599</v>
+      </c>
+      <c r="D38" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="91" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="102">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="82">
+        <v>43600</v>
+      </c>
+      <c r="D39" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="102">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="82">
+        <v>43600</v>
+      </c>
+      <c r="D40" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="102">
+        <v>15394000</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="82">
+        <v>43600</v>
+      </c>
+      <c r="D41" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="102">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="82">
+        <v>43600</v>
+      </c>
+      <c r="D42" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="102">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="82">
+        <v>43601</v>
+      </c>
+      <c r="D43" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="102">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="82"/>
+      <c r="D44" s="91"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="102"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="82"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="102"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="82"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="102"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="82"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="102"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C48" s="82"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="102"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="82"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="102"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="82"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="102"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="82"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="102"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="82"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="91"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="102"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="82"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="91"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="102"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="82"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="102"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="82"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="102"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="82"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="102"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="H42" s="83"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="84" t="s">
+      <c r="C57" s="79"/>
+      <c r="H57" s="83"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="F43" s="90" t="s">
+      <c r="C58" s="79"/>
+      <c r="F58" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="83"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="93"/>
-    </row>
-    <row r="47" spans="2:8" s="86" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="94" t="s">
+      <c r="G58" s="90"/>
+      <c r="H58" s="83"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="93"/>
+    </row>
+    <row r="62" spans="1:8" s="86" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="86" t="s">
+      <c r="F62" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="G47" s="87" t="s">
+      <c r="G62" s="87" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="88" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="95" t="s">
+    <row r="63" spans="1:8" s="88" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="88" t="s">
+      <c r="F63" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="89" t="s">
+      <c r="G63" s="89" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="84" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="79"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="96" t="s">
+      <c r="C64" s="79"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="79"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="99"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="84" t="s">
+      <c r="B65" s="84"/>
+      <c r="C65" s="79"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="99"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="79"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="100" t="s">
+      <c r="C67" s="79"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="G53" s="79"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="84" t="s">
+      <c r="C68" s="79"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="G68" s="79"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="84" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="G54" s="79"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="84" t="s">
+      <c r="C69" s="79"/>
+      <c r="G69" s="79"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="G55" s="79"/>
+      <c r="C70" s="79"/>
+      <c r="G70" s="79"/>
     </row>
   </sheetData>
-  <autoFilter ref="C5:G45">
+  <autoFilter ref="C5:G60">
     <sortState ref="C54:G54">
       <sortCondition ref="E4:E54"/>
     </sortState>
@@ -2360,27 +2560,27 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="56"/>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="56"/>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="56"/>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="56"/>
@@ -3423,10 +3623,10 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="106"/>
+      <c r="C67" s="107"/>
       <c r="D67" s="63"/>
       <c r="E67" s="70">
         <f>SUBTOTAL(9,E7:E64)</f>
@@ -3480,8 +3680,8 @@
       <c r="F76" s="58"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D80" s="74"/>
@@ -3548,29 +3748,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3955,27 +4155,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="42"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="42"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
@@ -4487,11 +4687,11 @@
       <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="111"/>
-      <c r="C39" s="112"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="44">
         <f>SUM(D5:D38)</f>
         <v>16351900</v>
@@ -4580,23 +4780,23 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5253,11 +5453,11 @@
       <c r="J38" s="17"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="113" t="s">
+      <c r="A39" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="116"/>
       <c r="D39" s="24">
         <f>SUM(D5:D38)</f>
         <v>16901900</v>
